--- a/biology/Zoologie/Allô_maman,_c'est_Noël/Allô_maman,_c'est_Noël.xlsx
+++ b/biology/Zoologie/Allô_maman,_c'est_Noël/Allô_maman,_c'est_Noël.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>All%C3%B4_maman,_c%27est_No%C3%ABl</t>
+          <t>Allô_maman,_c'est_Noël</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allô maman, c'est Noël ou De quoi j'me mêle maintenant au Québec (Look Who's Talking Now) est un film de Noël américain de Tom Ropelewski sorti en 1993.
 Après que ce soit les bébés qui raconte le film de leur point de vue, ce sera autour de deux chiens.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>All%C3%B4_maman,_c%27est_No%C3%ABl</t>
+          <t>Allô_maman,_c'est_Noël</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les deux enfants de la famille Ubriacco ont grandi et parlent normalement, suffisamment pour réclamer un chien pour Noël. Ils en auront deux : Rocks, un corniaud sauvé de la fourrière et Daphné, une caniche raffinée appartenant à Samantha, l'entreprenante patronne de James. Opposés en tout, Rocks et Daphné nous livrent leurs commentaires à chaud.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>All%C3%B4_maman,_c%27est_No%C3%ABl</t>
+          <t>Allô_maman,_c'est_Noël</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Look Who's Talking Now
 Titre français : Allô maman, c'est Noël
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>All%C3%B4_maman,_c%27est_No%C3%ABl</t>
+          <t>Allô_maman,_c'est_Noël</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>John Travolta (VF : Daniel Russo ; VQ : Jean-Luc Montminy) : James Ubriacco
 Kirstie Alley (VF : Marie Vincent ; VQ : Claudine Chatel) : Mollie Ubriacco
@@ -613,7 +631,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>All%C3%B4_maman,_c%27est_No%C3%ABl</t>
+          <t>Allô_maman,_c'est_Noël</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -632,6 +650,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
